--- a/3.勤怠管理アプリ/04_外部仕様書/4.画面設計/コピー画面一覧.xlsx
+++ b/3.勤怠管理アプリ/04_外部仕様書/4.画面設計/コピー画面一覧.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10770" windowHeight="6105"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10770" windowHeight="6105" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="3">
@@ -399,6 +399,67 @@
     <rPh sb="0" eb="2">
       <t>コマタ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者申請承認画面</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請者、申請日時、申請内容が確認でき、承認か否認か</t>
+    <rPh sb="0" eb="2">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>シンセイナイヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>をステータスtrue;承認false否認で選択できる</t>
+    <rPh sb="11" eb="13">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒニン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admin</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -573,6 +634,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -581,15 +651,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -650,7 +711,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1064"/>
+                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1066"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -989,7 +1050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -1041,285 +1102,255 @@
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="12"/>
       <c r="E38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B31:D31"/>
@@ -1327,6 +1358,36 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1338,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1495,9 +1556,15 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1505,7 +1572,9 @@
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
